--- a/products.xlsx
+++ b/products.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Products" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="제품 데이터" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,1033 +446,1033 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P0001</t>
+          <t>P001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>스피커</t>
+          <t>냉장고</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D2" t="n">
-        <v>122309</v>
+        <v>529150</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P0002</t>
+          <t>P002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>냉장고</t>
+          <t>스마트폰</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>370705</v>
+        <v>1891843</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P0003</t>
+          <t>P003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>카메라</t>
+          <t>모니터</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>346920</v>
+        <v>475324</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P0004</t>
+          <t>P004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>스마트폰</t>
+          <t>무선이어폰</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
-        <v>1272914</v>
+        <v>194095</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>P0005</t>
+          <t>P005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>키보드</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D6" t="n">
-        <v>1629768</v>
+        <v>684306</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>P0006</t>
+          <t>P006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>노트북</t>
+          <t>모니터</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="D7" t="n">
-        <v>721657</v>
+        <v>233707</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>P0007</t>
+          <t>P007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>프린터</t>
+          <t>건조기</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D8" t="n">
-        <v>1018534</v>
+        <v>158303</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>P0008</t>
+          <t>P008</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>태블릿</t>
+          <t>무선이어폰</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="D9" t="n">
-        <v>631707</v>
+        <v>478417</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>P0009</t>
+          <t>P009</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>건조기</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="D10" t="n">
-        <v>243855</v>
+        <v>305881</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>P0010</t>
+          <t>P010</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>스피커</t>
+          <t>냉장고</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>65321</v>
+        <v>1166371</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>P0011</t>
+          <t>P011</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>키보드</t>
+          <t>전기밥솥</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D12" t="n">
-        <v>843084</v>
+        <v>474329</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>P0012</t>
+          <t>P012</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>게임기</t>
+          <t>노트북</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>798959</v>
+        <v>1326731</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>P0013</t>
+          <t>P013</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>이어폰</t>
+          <t>공기청정기</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="D14" t="n">
-        <v>114564</v>
+        <v>219577</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>P0014</t>
+          <t>P014</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>모니터</t>
+          <t>냉장고</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D15" t="n">
-        <v>1074351</v>
+        <v>926849</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>P0015</t>
+          <t>P015</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>전자레인지</t>
+          <t>냉장고</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="D16" t="n">
-        <v>1343187</v>
+        <v>1048297</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>P0016</t>
+          <t>P016</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>프린터</t>
+          <t>냉장고</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="D17" t="n">
-        <v>376267</v>
+        <v>1485645</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>P0017</t>
+          <t>P017</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>로봇청소기</t>
+          <t>세탁기</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D18" t="n">
-        <v>72010</v>
+        <v>119825</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>P0018</t>
+          <t>P018</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>마우스</t>
+          <t>전자레인지</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="D19" t="n">
-        <v>1433343</v>
+        <v>346353</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>P0019</t>
+          <t>P019</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>스마트워치</t>
+          <t>태블릿</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D20" t="n">
-        <v>491203</v>
+        <v>84815</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>P0020</t>
+          <t>P020</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>스마트폰</t>
+          <t>스마트워치</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D21" t="n">
-        <v>760413</v>
+        <v>86808</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>P0021</t>
+          <t>P021</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>태블릿</t>
+          <t>전자레인지</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>816107</v>
+        <v>95620</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>P0022</t>
+          <t>P022</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>스피커</t>
+          <t>전자레인지</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D23" t="n">
-        <v>1300219</v>
+        <v>52941</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>P0023</t>
+          <t>P023</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>모니터</t>
+          <t>노트북</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
-        <v>230948</v>
+        <v>1916033</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>P0024</t>
+          <t>P024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>게임기</t>
+          <t>모니터</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D25" t="n">
-        <v>1357562</v>
+        <v>75897</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>P0025</t>
+          <t>P025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>프린터</t>
+          <t>블루투스 스피커</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D26" t="n">
-        <v>1016803</v>
+        <v>226588</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>P0026</t>
+          <t>P026</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>헤드폰</t>
+          <t>냉장고</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="D27" t="n">
-        <v>1344976</v>
+        <v>1234647</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>P0027</t>
+          <t>P027</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>마우스</t>
+          <t>태블릿</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="D28" t="n">
-        <v>775695</v>
+        <v>238985</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>P0028</t>
+          <t>P028</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>프린터</t>
+          <t>블루투스 스피커</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D29" t="n">
-        <v>889605</v>
+        <v>222221</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>P0029</t>
+          <t>P029</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>키보드</t>
+          <t>무선이어폰</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D30" t="n">
-        <v>914423</v>
+        <v>473479</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>P0030</t>
+          <t>P030</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>공기청정기</t>
+          <t>블루투스 스피커</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D31" t="n">
-        <v>1583898</v>
+        <v>113352</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>P0031</t>
+          <t>P031</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>무선이어폰</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D32" t="n">
-        <v>1352458</v>
+        <v>127708</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>P0032</t>
+          <t>P032</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>세탁기</t>
+          <t>블루투스 스피커</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D33" t="n">
-        <v>587249</v>
+        <v>454301</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>P0033</t>
+          <t>P033</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>스마트워치</t>
+          <t>세탁기</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D34" t="n">
-        <v>272516</v>
+        <v>254594</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>P0034</t>
+          <t>P034</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>헤드폰</t>
+          <t>로봇청소기</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D35" t="n">
-        <v>1522841</v>
+        <v>270990</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>P0035</t>
+          <t>P035</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>공기청정기</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D36" t="n">
-        <v>865735</v>
+        <v>463731</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>P0036</t>
+          <t>P036</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>태블릿</t>
+          <t>노트북</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D37" t="n">
-        <v>1839943</v>
+        <v>858904</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>P0037</t>
+          <t>P037</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>이어폰</t>
+          <t>블루투스 스피커</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D38" t="n">
-        <v>720355</v>
+        <v>273529</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>P0038</t>
+          <t>P038</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>스피커</t>
+          <t>스마트워치</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D39" t="n">
-        <v>1390962</v>
+        <v>222920</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>P0039</t>
+          <t>P039</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>키보드</t>
+          <t>공기청정기</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D40" t="n">
-        <v>1207476</v>
+        <v>124568</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>P0040</t>
+          <t>P040</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>마우스</t>
+          <t>블루투스 스피커</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="D41" t="n">
-        <v>899001</v>
+        <v>304441</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>P0041</t>
+          <t>P041</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>태블릿</t>
+          <t>건조기</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="D42" t="n">
-        <v>174534</v>
+        <v>366756</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>P0042</t>
+          <t>P042</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>공기청정기</t>
+          <t>전자레인지</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="D43" t="n">
-        <v>1794717</v>
+        <v>311539</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>P0043</t>
+          <t>P043</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>게임기</t>
+          <t>로봇청소기</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D44" t="n">
-        <v>697555</v>
+        <v>250556</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>P0044</t>
+          <t>P044</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>키보드</t>
+          <t>전자레인지</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D45" t="n">
-        <v>629705</v>
+        <v>145280</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>P0045</t>
+          <t>P045</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>마우스</t>
+          <t>스마트워치</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D46" t="n">
-        <v>773830</v>
+        <v>368273</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>P0046</t>
+          <t>P046</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>게임기</t>
+          <t>무선이어폰</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D47" t="n">
-        <v>883760</v>
+        <v>382486</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>P0047</t>
+          <t>P047</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>태블릿</t>
+          <t>스마트폰</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D48" t="n">
-        <v>1922398</v>
+        <v>1873796</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>P0048</t>
+          <t>P048</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>세탁기</t>
+          <t>스마트폰</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="D49" t="n">
-        <v>215186</v>
+        <v>865569</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>P0049</t>
+          <t>P049</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>카메라</t>
+          <t>냉장고</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D50" t="n">
-        <v>1692428</v>
+        <v>515998</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>P0050</t>
+          <t>P050</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>헤드폰</t>
+          <t>건조기</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="D51" t="n">
-        <v>1605336</v>
+        <v>173533</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>P0051</t>
+          <t>P051</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>스피커</t>
+          <t>블루투스 스피커</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D52" t="n">
-        <v>229795</v>
+        <v>460838</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>P0052</t>
+          <t>P052</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>이어폰</t>
+          <t>모니터</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D53" t="n">
-        <v>555441</v>
+        <v>438621</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>P0053</t>
+          <t>P053</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>세탁기</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D54" t="n">
-        <v>302570</v>
+        <v>1472734</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>P0054</t>
+          <t>P054</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>스마트워치</t>
+          <t>공기청정기</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D55" t="n">
-        <v>1670966</v>
+        <v>96425</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>P0055</t>
+          <t>P055</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>스마트워치</t>
+          <t>노트북</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D56" t="n">
-        <v>222461</v>
+        <v>1614667</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>P0056</t>
+          <t>P056</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>프로젝터</t>
+          <t>스마트폰</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D57" t="n">
-        <v>538790</v>
+        <v>1449137</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>P0057</t>
+          <t>P057</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>로봇청소기</t>
+          <t>스마트폰</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D58" t="n">
-        <v>937157</v>
+        <v>920736</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>P0058</t>
+          <t>P058</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1481,682 +1481,682 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D59" t="n">
-        <v>1151766</v>
+        <v>1436432</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>P0059</t>
+          <t>P059</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>모니터</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D60" t="n">
-        <v>1304085</v>
+        <v>338330</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>P0060</t>
+          <t>P060</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>키보드</t>
+          <t>로봇청소기</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D61" t="n">
-        <v>377379</v>
+        <v>138957</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>P0061</t>
+          <t>P061</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>모니터</t>
+          <t>냉장고</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="D62" t="n">
-        <v>1048277</v>
+        <v>603099</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>P0062</t>
+          <t>P062</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>스마트폰</t>
+          <t>무선이어폰</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D63" t="n">
-        <v>960061</v>
+        <v>210156</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>P0063</t>
+          <t>P063</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>스피커</t>
+          <t>블루투스 스피커</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D64" t="n">
-        <v>1052049</v>
+        <v>361581</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>P0064</t>
+          <t>P064</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>전자레인지</t>
+          <t>스마트폰</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="D65" t="n">
-        <v>557573</v>
+        <v>1338879</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>P0065</t>
+          <t>P065</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>스마트폰</t>
+          <t>무선이어폰</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D66" t="n">
-        <v>1256667</v>
+        <v>450887</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>P0066</t>
+          <t>P066</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>프린터</t>
+          <t>무선이어폰</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D67" t="n">
-        <v>1760124</v>
+        <v>491900</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>P0067</t>
+          <t>P067</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>게임기</t>
+          <t>세탁기</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D68" t="n">
-        <v>1579229</v>
+        <v>116497</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>P0068</t>
+          <t>P068</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>게임기</t>
+          <t>블루투스 스피커</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D69" t="n">
-        <v>970587</v>
+        <v>425667</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>P0069</t>
+          <t>P069</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>스마트워치</t>
+          <t>전기밥솥</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>228840</v>
+        <v>181759</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>P0070</t>
+          <t>P070</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>게임기</t>
+          <t>전자레인지</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D71" t="n">
-        <v>1843931</v>
+        <v>220086</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>P0071</t>
+          <t>P071</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>스피커</t>
+          <t>태블릿</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>315720</v>
+        <v>365571</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>P0072</t>
+          <t>P072</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>키보드</t>
+          <t>전기밥솥</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>7</v>
       </c>
       <c r="D73" t="n">
-        <v>1007460</v>
+        <v>100965</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>P0073</t>
+          <t>P073</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>스피커</t>
+          <t>태블릿</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="D74" t="n">
-        <v>1598733</v>
+        <v>217692</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>P0074</t>
+          <t>P074</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>스마트워치</t>
+          <t>공기청정기</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D75" t="n">
-        <v>1251897</v>
+        <v>335550</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>P0075</t>
+          <t>P075</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>키보드</t>
+          <t>블루투스 스피커</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D76" t="n">
-        <v>297858</v>
+        <v>87544</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>P0076</t>
+          <t>P076</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>이어폰</t>
+          <t>건조기</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D77" t="n">
-        <v>446071</v>
+        <v>209638</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>P0077</t>
+          <t>P077</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>전자레인지</t>
+          <t>공기청정기</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D78" t="n">
-        <v>1104684</v>
+        <v>379466</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>P0078</t>
+          <t>P078</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>카메라</t>
+          <t>전기밥솥</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D79" t="n">
-        <v>865637</v>
+        <v>117142</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>P0079</t>
+          <t>P079</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>게임기</t>
+          <t>로봇청소기</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D80" t="n">
-        <v>1033948</v>
+        <v>456555</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>P0080</t>
+          <t>P080</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>키보드</t>
+          <t>건조기</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D81" t="n">
-        <v>1648460</v>
+        <v>61199</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>P0081</t>
+          <t>P081</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>게임기</t>
+          <t>건조기</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D82" t="n">
-        <v>961984</v>
+        <v>94713</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>P0082</t>
+          <t>P082</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>스피커</t>
+          <t>건조기</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D83" t="n">
-        <v>75152</v>
+        <v>291320</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>P0083</t>
+          <t>P083</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>키보드</t>
+          <t>노트북</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>473354</v>
+        <v>1385526</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>P0084</t>
+          <t>P084</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>전자레인지</t>
+          <t>세탁기</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="D85" t="n">
-        <v>831939</v>
+        <v>445516</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>P0085</t>
+          <t>P085</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>프로젝터</t>
+          <t>무선이어폰</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="D86" t="n">
-        <v>1303095</v>
+        <v>61808</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>P0086</t>
+          <t>P086</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>로봇청소기</t>
+          <t>노트북</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="D87" t="n">
-        <v>1171472</v>
+        <v>1172321</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>P0087</t>
+          <t>P087</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>세탁기</t>
+          <t>냉장고</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D88" t="n">
-        <v>1126921</v>
+        <v>1412892</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>P0088</t>
+          <t>P088</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>스마트폰</t>
+          <t>건조기</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D89" t="n">
-        <v>1700305</v>
+        <v>245345</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>P0089</t>
+          <t>P089</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>카메라</t>
+          <t>전기밥솥</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D90" t="n">
-        <v>1983278</v>
+        <v>299740</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>P0090</t>
+          <t>P090</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>이어폰</t>
+          <t>공기청정기</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="D91" t="n">
-        <v>1157573</v>
+        <v>58994</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>P0091</t>
+          <t>P091</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>세탁기</t>
+          <t>스마트워치</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D92" t="n">
-        <v>1361452</v>
+        <v>342711</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>P0092</t>
+          <t>P092</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>로봇청소기</t>
+          <t>노트북</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="D93" t="n">
-        <v>1665248</v>
+        <v>1116246</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>P0093</t>
+          <t>P093</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>노트북</t>
+          <t>무선이어폰</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D94" t="n">
-        <v>1501067</v>
+        <v>230309</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>P0094</t>
+          <t>P094</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>스마트워치</t>
+          <t>무선이어폰</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D95" t="n">
-        <v>1600137</v>
+        <v>69992</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>P0095</t>
+          <t>P095</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>스피커</t>
+          <t>스마트폰</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D96" t="n">
-        <v>876804</v>
+        <v>1471838</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>P0096</t>
+          <t>P096</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2165,34 +2165,34 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D97" t="n">
-        <v>1968692</v>
+        <v>161607</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>P0097</t>
+          <t>P097</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>스피커</t>
+          <t>로봇청소기</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="D98" t="n">
-        <v>791192</v>
+        <v>84575</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>P0098</t>
+          <t>P098</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2201,46 +2201,46 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>883151</v>
+        <v>147771</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>P0099</t>
+          <t>P099</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>키보드</t>
+          <t>블루투스 스피커</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="D100" t="n">
-        <v>1864495</v>
+        <v>173634</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>P0100</t>
+          <t>P100</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>마우스</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D101" t="n">
-        <v>274845</v>
+        <v>1496084</v>
       </c>
     </row>
   </sheetData>
